--- a/data/trans_dic/P2A_lim_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P2A_lim_R-Clase-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.04900779637929316</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.1012383802588326</v>
+        <v>0.1012383802588327</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.02782056074922303</v>
+        <v>0.02829963601826505</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.04331019801658086</v>
+        <v>0.04056052957515922</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.02717477854429575</v>
+        <v>0.02705901371105974</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.08669570267937879</v>
+        <v>0.08744409050927594</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.0316872739425611</v>
+        <v>0.02970442191193685</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.05430298083829815</v>
+        <v>0.05665365516329229</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.0326088629841346</v>
+        <v>0.03201123590996072</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.07058046106556029</v>
+        <v>0.06941680079228392</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.03444992367093696</v>
+        <v>0.0333945195057541</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.05329581428248464</v>
+        <v>0.05358606071710232</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.0351491578528917</v>
+        <v>0.03574726924269492</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.08402680928611357</v>
+        <v>0.08430777104799449</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.07074767878847125</v>
+        <v>0.06842591072429847</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.09830845572256348</v>
+        <v>0.09723414845084191</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.06602499829821352</v>
+        <v>0.06847637087554984</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1395295509562157</v>
+        <v>0.1408251120583963</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.0856165807640787</v>
+        <v>0.08181837906827027</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1247922948190489</v>
+        <v>0.123223364247624</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.08656608456321629</v>
+        <v>0.0848291648934697</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1139891934733077</v>
+        <v>0.1159409981229344</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.06626765282882315</v>
+        <v>0.06511683655180375</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.09669127285367879</v>
+        <v>0.09662447207900131</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.0681842362126731</v>
+        <v>0.06793757231241757</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1197331467700399</v>
+        <v>0.1222761997430602</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.03525615198795405</v>
+        <v>0.03186635317894662</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.04406636611067334</v>
+        <v>0.04444718084623943</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.03333610762727682</v>
+        <v>0.03484150771124787</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.06898026916955423</v>
+        <v>0.06748732704252955</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.03571375109972397</v>
+        <v>0.03569083750270096</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.05213154527782464</v>
+        <v>0.05144925017651248</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.03303633249042244</v>
+        <v>0.03133393385742509</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.07120940704767727</v>
+        <v>0.07012731239367348</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.04153915270554474</v>
+        <v>0.04023454258331067</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.0531049788405971</v>
+        <v>0.05245808078485718</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.03796435634974955</v>
+        <v>0.03809294251047585</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.07634997811868244</v>
+        <v>0.07461692059577894</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.08427982138161851</v>
+        <v>0.08178873026660273</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.09746472942537261</v>
+        <v>0.09865716177774238</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.08246569440559737</v>
+        <v>0.08200923298959328</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1271064120619039</v>
+        <v>0.1282188198938768</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.08789036273713761</v>
+        <v>0.08759000638686677</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1170657468007848</v>
+        <v>0.1101143326936673</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.07921326375231064</v>
+        <v>0.08161162737414702</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.118976298984646</v>
+        <v>0.1176525240624125</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.0765807731182373</v>
+        <v>0.07434544835443177</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.09443709103655405</v>
+        <v>0.09292332862397967</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.07074754004171178</v>
+        <v>0.07177043297973539</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1124291403765955</v>
+        <v>0.1129343453012941</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.04740915065345388</v>
+        <v>0.04511775339875605</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.09276860650485222</v>
+        <v>0.09409798611788373</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.0561621693168726</v>
+        <v>0.05575238411924437</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1208618883874626</v>
+        <v>0.121644502901474</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.06272654199947778</v>
+        <v>0.06328632601673456</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.06504323066014074</v>
+        <v>0.06343842170171313</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.04462468047857882</v>
+        <v>0.04680801210611332</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1034054170611379</v>
+        <v>0.1056127894898633</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.05663772472267996</v>
+        <v>0.05511765137637954</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.09046693372958872</v>
+        <v>0.09065427880892153</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.05767763618254192</v>
+        <v>0.058294231929227</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1233462080180952</v>
+        <v>0.1239576152802168</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.0909699490378099</v>
+        <v>0.08868776407357391</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1492359139954512</v>
+        <v>0.1490245913409696</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1036760364162208</v>
+        <v>0.1027091227206929</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1885157075167121</v>
+        <v>0.1887304110709721</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1601678734281004</v>
+        <v>0.1544305760966201</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1438629964081068</v>
+        <v>0.1409451263361184</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.137249724858946</v>
+        <v>0.1429894656547454</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2047502092059938</v>
+        <v>0.2056279671520219</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.09380757911247121</v>
+        <v>0.09411566576561385</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.137718374518123</v>
+        <v>0.1376045676995125</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1009861008752094</v>
+        <v>0.1019996221548147</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1762286356844192</v>
+        <v>0.1803768200211813</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.06553922282411812</v>
+        <v>0.06452367046971566</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.09229872002962475</v>
+        <v>0.09275952847139435</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.06033305161984452</v>
+        <v>0.05928377955762846</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1271071937607436</v>
+        <v>0.1256543146129984</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.06019579165169246</v>
+        <v>0.06101086105920214</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1040284886296048</v>
+        <v>0.1061564255793948</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.06932517398056307</v>
+        <v>0.06856236207236752</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1010208386128083</v>
+        <v>0.1015497114161624</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.06775364031056988</v>
+        <v>0.06806008792514763</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1046576511767485</v>
+        <v>0.1038487751190626</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.0687340564545076</v>
+        <v>0.06871143910635856</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1202090985261251</v>
+        <v>0.1202848483600304</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.09584106317867512</v>
+        <v>0.09768302494621367</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1291380961828785</v>
+        <v>0.1315576987567942</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.09424485499423253</v>
+        <v>0.0913479906866428</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1691006248400763</v>
+        <v>0.166659534586643</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1038879127916125</v>
+        <v>0.1030031066428006</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1560362709831039</v>
+        <v>0.1570877622895351</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1126421230289309</v>
+        <v>0.1107560207421363</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1376170784526033</v>
+        <v>0.1381133809846011</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.09368899223019382</v>
+        <v>0.09374186635009508</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1344365791182364</v>
+        <v>0.1335673293049009</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.09383611469389121</v>
+        <v>0.09358942115145816</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1493880862993918</v>
+        <v>0.1498825531647087</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.05445850588661069</v>
+        <v>0.05882343744841103</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.06623325858905484</v>
+        <v>0.06483284931729148</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.0641416214349074</v>
+        <v>0.06639063457316581</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1487182890831836</v>
+        <v>0.1493287142152515</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.06478217280741203</v>
+        <v>0.06435328034527553</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1152089546627365</v>
+        <v>0.1138389908757178</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.09161829893005759</v>
+        <v>0.08902693015171644</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1610271279734906</v>
+        <v>0.159839922393167</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.0672371973485074</v>
+        <v>0.0661678036143221</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.1005089039701956</v>
+        <v>0.1016211685833246</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.08342408956745384</v>
+        <v>0.08465715429887259</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1622823759921917</v>
+        <v>0.1628340912563554</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1177221813481272</v>
+        <v>0.1187633444585748</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1177255584489499</v>
+        <v>0.1142862170692438</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1124846022975727</v>
+        <v>0.1133189912173552</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2142225822509729</v>
+        <v>0.21466669822105</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1104820243939193</v>
+        <v>0.1117520615013873</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1695951875452286</v>
+        <v>0.1650532173048695</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1372279219579927</v>
+        <v>0.1379248801751891</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2015746115329566</v>
+        <v>0.2029052935358058</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1040513307288215</v>
+        <v>0.1027552072563934</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.1387293154591266</v>
+        <v>0.136904561834843</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.116285079138769</v>
+        <v>0.117729376207476</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.2003180941505597</v>
+        <v>0.1998173701486783</v>
       </c>
     </row>
     <row r="19">
@@ -1353,7 +1353,7 @@
         <v>0.06794440274760559</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.07371323814099795</v>
+        <v>0.07371323814099798</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.08880206567918755</v>
@@ -1377,7 +1377,7 @@
         <v>0.08735273586992538</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.1615923865293498</v>
+        <v>0.1615923865293499</v>
       </c>
     </row>
     <row r="20">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.02673361709503081</v>
+        <v>0.02718172629981893</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.04797576878717706</v>
+        <v>0.0511008029777937</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.04049629961314782</v>
+        <v>0.04244558185929281</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.0389017506901364</v>
+        <v>0.03785883785673809</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.07362277173218117</v>
+        <v>0.07380418686368055</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.09506724280214042</v>
+        <v>0.09474751559431606</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.07520277800416302</v>
+        <v>0.07425906296429462</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.1653664177096769</v>
+        <v>0.1625857050689585</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.06836250257789175</v>
+        <v>0.0677192333066327</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.08837494541935116</v>
+        <v>0.0919154238312173</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.07094985210748482</v>
+        <v>0.07189497547757683</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.1434821699572084</v>
+        <v>0.1406851137514065</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.08225228695513212</v>
+        <v>0.08080530109069319</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.1198454858631704</v>
+        <v>0.1304140796407803</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.1020370271882723</v>
+        <v>0.09942965216661327</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.1299542024628334</v>
+        <v>0.1297750433438745</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.1052513588567034</v>
+        <v>0.1062451036702282</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.1332067800530026</v>
+        <v>0.1322879195074789</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.1117857071687212</v>
+        <v>0.1119096844032081</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.2118596376023183</v>
+        <v>0.2114643544793633</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.09496797421253436</v>
+        <v>0.09443152489684353</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.1234791002402651</v>
+        <v>0.1265142643300115</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.1027295520432652</v>
+        <v>0.1043431240418484</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.186836155653925</v>
+        <v>0.1836250554708834</v>
       </c>
     </row>
     <row r="22">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.05909188435064326</v>
+        <v>0.05841596667096813</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.0846974111218089</v>
+        <v>0.0845384150816368</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.06129877753835244</v>
+        <v>0.06244155255632811</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1240776605851982</v>
+        <v>0.1235218892486439</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.07149257680801879</v>
+        <v>0.07094893396825601</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.1045007531377618</v>
+        <v>0.1043403045948656</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.07775991533060793</v>
+        <v>0.07717655761110413</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.1326183293659064</v>
+        <v>0.1342021242017762</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.06727642088984258</v>
+        <v>0.06771935050455302</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.09760008550715005</v>
+        <v>0.09773497171994586</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.07261003432318623</v>
+        <v>0.07231184294027856</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.1313317325330412</v>
+        <v>0.1309609787036742</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.07618611569992979</v>
+        <v>0.07612202372001513</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1063626053015428</v>
+        <v>0.106379210661881</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.07986018844552661</v>
+        <v>0.08043537112620951</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1492134915726068</v>
+        <v>0.1478604194069922</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.0900728362025307</v>
+        <v>0.09026282015583476</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.1266562476888499</v>
+        <v>0.1265818442171971</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.09836208586644431</v>
+        <v>0.0971909461555555</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.1531918401427793</v>
+        <v>0.153162912120029</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.08012996259403843</v>
+        <v>0.08052771204942824</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.1130687600752581</v>
+        <v>0.1131217358876106</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.08583869744628153</v>
+        <v>0.08594468759369417</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.1465329345588847</v>
+        <v>0.1461126675390557</v>
       </c>
     </row>
     <row r="25">
@@ -1874,40 +1874,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>13152</v>
+        <v>13379</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>18936</v>
+        <v>17734</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>11481</v>
+        <v>11432</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>47063</v>
+        <v>47469</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>9718</v>
+        <v>9110</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>17076</v>
+        <v>17815</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>11317</v>
+        <v>11110</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>34260</v>
+        <v>33696</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>26851</v>
+        <v>26029</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>40061</v>
+        <v>40279</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>27049</v>
+        <v>27509</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>86402</v>
+        <v>86690</v>
       </c>
     </row>
     <row r="7">
@@ -1918,40 +1918,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>33446</v>
+        <v>32348</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>42982</v>
+        <v>42512</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>27894</v>
+        <v>28930</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>75744</v>
+        <v>76447</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>26257</v>
+        <v>25092</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>39241</v>
+        <v>38748</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>30043</v>
+        <v>29440</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>55331</v>
+        <v>56279</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>51651</v>
+        <v>50754</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>72679</v>
+        <v>72629</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>52470</v>
+        <v>52280</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>123117</v>
+        <v>125732</v>
       </c>
     </row>
     <row r="8">
@@ -2054,40 +2054,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>12866</v>
+        <v>11629</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>18455</v>
+        <v>18614</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>12575</v>
+        <v>13143</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>33196</v>
+        <v>32478</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>13244</v>
+        <v>13236</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>17572</v>
+        <v>17342</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>12266</v>
+        <v>11634</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>29992</v>
+        <v>29537</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>30563</v>
+        <v>29603</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>40140</v>
+        <v>39651</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>28417</v>
+        <v>28513</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>68900</v>
+        <v>67336</v>
       </c>
     </row>
     <row r="11">
@@ -2098,40 +2098,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>30756</v>
+        <v>29847</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>40818</v>
+        <v>41317</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>31108</v>
+        <v>30936</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>61169</v>
+        <v>61704</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>32594</v>
+        <v>32482</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>39459</v>
+        <v>37116</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>29412</v>
+        <v>30302</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>50111</v>
+        <v>49554</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>56346</v>
+        <v>54701</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>71381</v>
+        <v>70237</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>52956</v>
+        <v>53722</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>101459</v>
+        <v>101915</v>
       </c>
     </row>
     <row r="12">
@@ -2234,40 +2234,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>25672</v>
+        <v>24432</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>58390</v>
+        <v>59227</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>29312</v>
+        <v>29098</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>56913</v>
+        <v>57282</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>10397</v>
+        <v>10490</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>16858</v>
+        <v>16442</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>7413</v>
+        <v>7776</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>19318</v>
+        <v>19731</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>40058</v>
+        <v>38982</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>80389</v>
+        <v>80555</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>39684</v>
+        <v>40109</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>81127</v>
+        <v>81529</v>
       </c>
     </row>
     <row r="15">
@@ -2278,40 +2278,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>49261</v>
+        <v>48025</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>93931</v>
+        <v>93798</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>54110</v>
+        <v>53605</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>88771</v>
+        <v>88872</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>26548</v>
+        <v>25597</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>37287</v>
+        <v>36530</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>22800</v>
+        <v>23754</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>38252</v>
+        <v>38416</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>66346</v>
+        <v>66564</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>122376</v>
+        <v>122275</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>69482</v>
+        <v>70179</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>115908</v>
+        <v>118637</v>
       </c>
     </row>
     <row r="16">
@@ -2414,40 +2414,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>80929</v>
+        <v>79675</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>106975</v>
+        <v>107509</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>69173</v>
+        <v>67970</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>142983</v>
+        <v>141349</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>42997</v>
+        <v>43579</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>79754</v>
+        <v>81386</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>57190</v>
+        <v>56560</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>86567</v>
+        <v>87020</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>132058</v>
+        <v>132656</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>201536</v>
+        <v>199978</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>135507</v>
+        <v>135463</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>238234</v>
+        <v>238384</v>
       </c>
     </row>
     <row r="19">
@@ -2458,40 +2458,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>118346</v>
+        <v>120620</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>149672</v>
+        <v>152477</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>108054</v>
+        <v>104732</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>190222</v>
+        <v>187476</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>74206</v>
+        <v>73574</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>119626</v>
+        <v>120432</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>92924</v>
+        <v>91368</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>117928</v>
+        <v>118353</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>182609</v>
+        <v>182712</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>258880</v>
+        <v>257206</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>184995</v>
+        <v>184509</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>296062</v>
+        <v>297042</v>
       </c>
     </row>
     <row r="20">
@@ -2594,40 +2594,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>19045</v>
+        <v>20571</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>33678</v>
+        <v>32966</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>39481</v>
+        <v>40865</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>83443</v>
+        <v>83785</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>36845</v>
+        <v>36601</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>87734</v>
+        <v>86691</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>67349</v>
+        <v>65444</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>132879</v>
+        <v>131899</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>61755</v>
+        <v>60773</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>127646</v>
+        <v>129059</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>112676</v>
+        <v>114341</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>224968</v>
+        <v>225733</v>
       </c>
     </row>
     <row r="23">
@@ -2638,40 +2638,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>41169</v>
+        <v>41533</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>59861</v>
+        <v>58112</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>69238</v>
+        <v>69751</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>120196</v>
+        <v>120445</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>62837</v>
+        <v>63559</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>129150</v>
+        <v>125692</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>100877</v>
+        <v>101389</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>166339</v>
+        <v>167437</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>95567</v>
+        <v>94377</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>176186</v>
+        <v>173869</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>157059</v>
+        <v>159010</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>277696</v>
+        <v>277002</v>
       </c>
     </row>
     <row r="24">
@@ -2774,40 +2774,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>7945</v>
+        <v>8079</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>12754</v>
+        <v>13584</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>11554</v>
+        <v>12111</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>9157</v>
+        <v>8911</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>91847</v>
+        <v>92073</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>105463</v>
+        <v>105108</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>81221</v>
+        <v>80201</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>139556</v>
+        <v>137209</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>105602</v>
+        <v>104609</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>121532</v>
+        <v>126401</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>96871</v>
+        <v>98161</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>154861</v>
+        <v>151842</v>
       </c>
     </row>
     <row r="27">
@@ -2818,40 +2818,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>24446</v>
+        <v>24016</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>31859</v>
+        <v>34668</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>29113</v>
+        <v>28369</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>30590</v>
+        <v>30547</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>131304</v>
+        <v>132544</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>147773</v>
+        <v>146754</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>120731</v>
+        <v>120865</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>178792</v>
+        <v>178459</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>146701</v>
+        <v>145872</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>169807</v>
+        <v>173981</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>140261</v>
+        <v>142464</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>201653</v>
+        <v>198188</v>
       </c>
     </row>
     <row r="28">
@@ -2954,40 +2954,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>192693</v>
+        <v>190489</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>289559</v>
+        <v>289015</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>206515</v>
+        <v>210365</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>423894</v>
+        <v>421995</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>241205</v>
+        <v>239371</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>370793</v>
+        <v>370224</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>274069</v>
+        <v>272013</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>480006</v>
+        <v>485739</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>446363</v>
+        <v>449302</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>679977</v>
+        <v>680917</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>500541</v>
+        <v>498485</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>924026</v>
+        <v>921417</v>
       </c>
     </row>
     <row r="31">
@@ -2998,40 +2998,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>248436</v>
+        <v>248227</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>363626</v>
+        <v>363683</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>269049</v>
+        <v>270986</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>509767</v>
+        <v>505144</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>303892</v>
+        <v>304533</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>449406</v>
+        <v>449142</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>346682</v>
+        <v>342554</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>554471</v>
+        <v>554367</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>531643</v>
+        <v>534282</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>787747</v>
+        <v>788116</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>591733</v>
+        <v>592464</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>1030979</v>
+        <v>1028022</v>
       </c>
     </row>
     <row r="32">
